--- a/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit.xlsx
+++ b/simulation_results_glmm/April10_fullsimulation/summary-results-bias-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\GitHub\Master-Thesis\simulation_results_glmm\April10_fullsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BF77E71-A6D4-40E3-9E3F-AED5DC5951E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3274CE-E509-41B3-8764-A911F5A27341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9FC23FD-800C-4659-8EF2-C08F4EAD879E}"/>
   </bookViews>
@@ -725,17 +725,17 @@
         <filter val="200"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
+    <filterColumn colId="5">
       <filters>
-        <filter val="20"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="7">
       <filters>
-        <filter val="binary"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="9">
       <filters>
         <filter val="1"/>
       </filters>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:AV397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F385" sqref="F385"/>
+      <selection activeCell="H387" sqref="H387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>200</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>200</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>200</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>200</v>
       </c>
@@ -28306,7 +28306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>200</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>200</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>200</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>200</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>200</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>200</v>
       </c>
@@ -31810,7 +31810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>200</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>200</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>200</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>200</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>200</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>200</v>
       </c>
@@ -41446,7 +41446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>200</v>
       </c>
@@ -42322,7 +42322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>200</v>
       </c>
@@ -46702,7 +46702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>200</v>
       </c>
@@ -47578,7 +47578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>200</v>
       </c>
@@ -51958,7 +51958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>200</v>
       </c>
@@ -52834,7 +52834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>200</v>
       </c>
